--- a/example_data/EPA/label_corrected/087093-00007-20180104_2018-12-08_195308.xlsx
+++ b/example_data/EPA/label_corrected/087093-00007-20180104_2018-12-08_195308.xlsx
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions</t>
+          <t>application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
